--- a/result/gr100_02_simulated/details.xlsx
+++ b/result/gr100_02_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8239972591400146</v>
+        <v>0.708798885345459</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1538.217725750654</v>
+        <v>1448.05328566901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06726470495902154</v>
+        <v>0.06734148368525826</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05540273734665576</v>
+        <v>0.05505040562410878</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04825276677808894</v>
+        <v>0.04792491229542371</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04378299036103692</v>
+        <v>0.04236825748483357</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04099810046931423</v>
+        <v>0.03807524420185895</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03896594013649639</v>
+        <v>0.03454229328210902</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03710973943402515</v>
+        <v>0.03213501245672883</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03512376455778587</v>
+        <v>0.03184823135405263</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03406651755575345</v>
+        <v>0.03092115310218088</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03303730152959451</v>
+        <v>0.03059610685946856</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03243151984194347</v>
+        <v>0.02988784642409726</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0319007714285868</v>
+        <v>0.02942597165874971</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03120384538264714</v>
+        <v>0.02915170243356777</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03105109818018783</v>
+        <v>0.02885458996040594</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03061629975397839</v>
+        <v>0.02878267415235739</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03033235000798085</v>
+        <v>0.02854347143364555</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03033235000798085</v>
+        <v>0.02839973429147171</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03018352087999401</v>
+        <v>0.02839973429147171</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03009915653443566</v>
+        <v>0.02831114312969657</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02998475098929149</v>
+        <v>0.02822715956469804</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.794996976852417</v>
+        <v>0.7948737144470215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1468.99754144384</v>
+        <v>1489.904564869592</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06711405253967269</v>
+        <v>0.06810240487318925</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05571637997431819</v>
+        <v>0.05517304379635206</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04597810198740811</v>
+        <v>0.0449984857945104</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04166997292225556</v>
+        <v>0.04145986882199669</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04030271773489358</v>
+        <v>0.03902636456940533</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03751387415000423</v>
+        <v>0.03723394995561809</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03538699852047699</v>
+        <v>0.03570663423462161</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03368255449081741</v>
+        <v>0.03350323711037784</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03255432172574103</v>
+        <v>0.0327464322978905</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03179027794481648</v>
+        <v>0.03209542636751661</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03076799449016543</v>
+        <v>0.0310561342390011</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03024303954462995</v>
+        <v>0.02967495056841576</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02992855609035084</v>
+        <v>0.02967495056841576</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02963206082270546</v>
+        <v>0.02945533037196667</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02890477698903347</v>
+        <v>0.02940175733040556</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02887894525506434</v>
+        <v>0.02912829677037918</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02877828870906456</v>
+        <v>0.02912829677037918</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02872670184685969</v>
+        <v>0.02912829677037918</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02863542965777464</v>
+        <v>0.02906434096151064</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02863542965777464</v>
+        <v>0.02904297397406611</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7910251617431641</v>
+        <v>0.7354607582092285</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1528.842867017889</v>
+        <v>1541.152179596231</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06766653927221702</v>
+        <v>0.06775691073841195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0542537153663917</v>
+        <v>0.05434322035179644</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04591613846892957</v>
+        <v>0.04814376526188227</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04452116584899932</v>
+        <v>0.04525903684008887</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04031682488027365</v>
+        <v>0.04038739542168356</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03707872603608043</v>
+        <v>0.0370802751993872</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03618784277509014</v>
+        <v>0.03607167413999854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03496716799902726</v>
+        <v>0.03448418730544573</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03403163367318352</v>
+        <v>0.03343284984446292</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0329055828384812</v>
+        <v>0.03247872715987322</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03212686480904534</v>
+        <v>0.03192364383010562</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03139896515985488</v>
+        <v>0.03158190835925204</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03120723850748167</v>
+        <v>0.03138525698268505</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03098694375897587</v>
+        <v>0.03093965111721659</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03033128595301034</v>
+        <v>0.03060720307819696</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03030886353494812</v>
+        <v>0.03045851068969805</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03009975670026011</v>
+        <v>0.0302786638459095</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02996724537479103</v>
+        <v>0.03024104488340618</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02988870654448212</v>
+        <v>0.03011668876375502</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02980200520502707</v>
+        <v>0.03004195281863997</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.716989278793335</v>
+        <v>0.7031199932098389</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1473.219499706251</v>
+        <v>1497.186824226579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06745476100358638</v>
+        <v>0.0672456839988628</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05671027472637636</v>
+        <v>0.05657568496370059</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04857294337309903</v>
+        <v>0.0477458644051469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04405637707292671</v>
+        <v>0.04228088860076793</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04054724620342592</v>
+        <v>0.03933476695716807</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03790437592610798</v>
+        <v>0.03692756930129316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03528208598061241</v>
+        <v>0.03454001101886991</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03403420013427543</v>
+        <v>0.03347246870684517</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03234422426409149</v>
+        <v>0.03276766262713533</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0317983411305079</v>
+        <v>0.0316495150884161</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03035761135818576</v>
+        <v>0.03083621275591808</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03028861865209699</v>
+        <v>0.03034223198578209</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02995148879784697</v>
+        <v>0.0299177808342243</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02960260208564478</v>
+        <v>0.02971942387621307</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02922595768373636</v>
+        <v>0.02971836810056327</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02906549953208201</v>
+        <v>0.0296236739641736</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02902013212585321</v>
+        <v>0.02952765577235657</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02882154259469776</v>
+        <v>0.02925784386087629</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0287177290391082</v>
+        <v>0.02925784386087629</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0287177290391082</v>
+        <v>0.02918492834749666</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7269265651702881</v>
+        <v>0.7187392711639404</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1615.573419345088</v>
+        <v>1545.066929621027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0659160779444906</v>
+        <v>0.06762117489747681</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05634121971549422</v>
+        <v>0.05345745275471724</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0499869591554356</v>
+        <v>0.0472760459665636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04615771839898745</v>
+        <v>0.04302408632300653</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04206546340708815</v>
+        <v>0.03997455093440801</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03867020379404025</v>
+        <v>0.03673463312149364</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03691425502356129</v>
+        <v>0.0344684096322875</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03609214823572934</v>
+        <v>0.03331944482693355</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03508336140262391</v>
+        <v>0.0329920573656258</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03356915768211909</v>
+        <v>0.03236778302992665</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03334516325356201</v>
+        <v>0.03232901676534485</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03319093795919289</v>
+        <v>0.03163937897794613</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03286473487257256</v>
+        <v>0.0312920460443203</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03236152017117887</v>
+        <v>0.0310526447490998</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03207424043260829</v>
+        <v>0.03072483742442202</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03190124803267899</v>
+        <v>0.03056705857797291</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03174231853835796</v>
+        <v>0.03041184994264001</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03163702642082995</v>
+        <v>0.03032951668868616</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03153612567952094</v>
+        <v>0.03017097100123558</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03149265924649294</v>
+        <v>0.03011826373530267</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7612192630767822</v>
+        <v>0.7187497615814209</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1496.30003628156</v>
+        <v>1533.58244787914</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06721090141415044</v>
+        <v>0.06731517371662961</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0539825937782051</v>
+        <v>0.05498301897314078</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04722447152044536</v>
+        <v>0.04782023718856787</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04277566401335043</v>
+        <v>0.04514663880210839</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03952382667259544</v>
+        <v>0.04131143266402484</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03583251216414058</v>
+        <v>0.03836842141566298</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03503501580399917</v>
+        <v>0.03654387252830766</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03325052530145545</v>
+        <v>0.0354126450905902</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03211105467142845</v>
+        <v>0.03411159162300496</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03150417635595588</v>
+        <v>0.033659050097132</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03120474291227238</v>
+        <v>0.03297813068918972</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03063750553833087</v>
+        <v>0.03239670621568314</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03011796884833391</v>
+        <v>0.03117620842964664</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03005978154200636</v>
+        <v>0.03072741331048395</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02962521101300801</v>
+        <v>0.03045261616871347</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02947512306048041</v>
+        <v>0.03043917275957136</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02947512306048041</v>
+        <v>0.03017431874748723</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02931391033075504</v>
+        <v>0.03008787394197295</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02922452094580187</v>
+        <v>0.02990675865036339</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02916764203277894</v>
+        <v>0.0298943946954998</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8139572143554688</v>
+        <v>0.7031259536743164</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1504.986109850086</v>
+        <v>1523.053553910388</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06727441072557906</v>
+        <v>0.06501018666108467</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05496896959439183</v>
+        <v>0.0545228238009107</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04882322627681776</v>
+        <v>0.0479539374492574</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04294930751678493</v>
+        <v>0.04580723083442008</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03887519454224024</v>
+        <v>0.04268867611053955</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03684680517890465</v>
+        <v>0.03946883614934294</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03471388769568265</v>
+        <v>0.03672258647081109</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03287949592709141</v>
+        <v>0.03476627921585379</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03287949592709141</v>
+        <v>0.03419691497416947</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03169580291010766</v>
+        <v>0.0326067168873132</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03125186617778865</v>
+        <v>0.03191753174263255</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03011215651482274</v>
+        <v>0.03133585307578327</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03011215651482274</v>
+        <v>0.03101515850373525</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02988988343786101</v>
+        <v>0.03035872719602457</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02985166094646174</v>
+        <v>0.03035872719602457</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02960790059790051</v>
+        <v>0.03021754591801571</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02953271842093029</v>
+        <v>0.03005012499922026</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0293926301875982</v>
+        <v>0.02990032753930467</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02939051782494954</v>
+        <v>0.02976148800669126</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02933696120565469</v>
+        <v>0.02968915309766837</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7370524406433105</v>
+        <v>0.7031211853027344</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1524.481797786881</v>
+        <v>1514.261986118221</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06820268328561226</v>
+        <v>0.06676943473561732</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05490043059243283</v>
+        <v>0.05264553125347945</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04811532883028494</v>
+        <v>0.04622361771963186</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04441064487765747</v>
+        <v>0.04406999175272695</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03966637008316349</v>
+        <v>0.03843668393532098</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03844922607460056</v>
+        <v>0.03672302073926133</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03718904790442356</v>
+        <v>0.03495547076223143</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03534854226988438</v>
+        <v>0.03408338568551982</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03459018676224223</v>
+        <v>0.03329402667793729</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03235101481162204</v>
+        <v>0.03262107783706859</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03174897625595827</v>
+        <v>0.03143566260652664</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03160797282822918</v>
+        <v>0.03143566260652664</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03119020810658865</v>
+        <v>0.03122779820159909</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03056613423674466</v>
+        <v>0.03066628741045385</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03056613423674466</v>
+        <v>0.03057366669322176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03045211235939058</v>
+        <v>0.03010439244833343</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03015759325893229</v>
+        <v>0.02980353292195573</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0299577843101676</v>
+        <v>0.02980353292195573</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02980835308269129</v>
+        <v>0.02961753363838246</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02971699410890605</v>
+        <v>0.02951777750717779</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.71795654296875</v>
+        <v>0.7187502384185791</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1505.188518865692</v>
+        <v>1505.778464952426</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06833086603489677</v>
+        <v>0.0678416358667131</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0572075767815197</v>
+        <v>0.05645771709134453</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04900901104400553</v>
+        <v>0.04738540092135047</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04454228889173247</v>
+        <v>0.04043907830815214</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04231698133525708</v>
+        <v>0.03854609583932683</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03829849008596659</v>
+        <v>0.03685117388999191</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0364907492339556</v>
+        <v>0.0348694310253166</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03465078784419111</v>
+        <v>0.03363071655283082</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03345484283955281</v>
+        <v>0.03313617387564987</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03288110967274394</v>
+        <v>0.03233395056417573</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0321040276565456</v>
+        <v>0.03156898208031031</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03113924534680438</v>
+        <v>0.03118527488470511</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03061882942259718</v>
+        <v>0.03026709342830818</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0302736570318343</v>
+        <v>0.03020777005270174</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02978145759177544</v>
+        <v>0.02982793391154151</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02978145759177544</v>
+        <v>0.02982793391154151</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02950288043102978</v>
+        <v>0.02960267994422603</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02950288043102978</v>
+        <v>0.02956679978102322</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02938905308029058</v>
+        <v>0.02946298024877584</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02934090680050082</v>
+        <v>0.02935240672421881</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7080023288726807</v>
+        <v>0.7031300067901611</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1524.026128280382</v>
+        <v>1533.507702813768</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06893150631248937</v>
+        <v>0.06787085321713363</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05611489894332313</v>
+        <v>0.05607279188414514</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04898547466895786</v>
+        <v>0.04708460183074994</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04459400884818172</v>
+        <v>0.04456994579466091</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04172385893965876</v>
+        <v>0.04172841837812251</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03946084088335625</v>
+        <v>0.03826035237248345</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03785303327698794</v>
+        <v>0.03671104606460574</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03571239756363614</v>
+        <v>0.03576829159578882</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03433952871752345</v>
+        <v>0.03439273434707859</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03320600000191412</v>
+        <v>0.03278351632076679</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03254690011574019</v>
+        <v>0.03214940820282364</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03210164221349436</v>
+        <v>0.03196132506912719</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03154824334161958</v>
+        <v>0.03161442803019304</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0309402110031747</v>
+        <v>0.03105169659336472</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03034288034031693</v>
+        <v>0.03068357354758817</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03019100642224246</v>
+        <v>0.03025400775556457</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02997237355100867</v>
+        <v>0.03023523669255527</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02984348039981724</v>
+        <v>0.03010335496342829</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02983388055995555</v>
+        <v>0.02996353699889102</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02970811166238561</v>
+        <v>0.02989293767668162</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_02_simulated/details.xlsx
+++ b/result/gr100_02_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.708798885345459</v>
+        <v>1.779961347579956</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1448.05328566901</v>
+        <v>2084.208947092691</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06734148368525826</v>
+        <v>0.09410775573023475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05505040562410878</v>
+        <v>0.07685615811998533</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04792491229542371</v>
+        <v>0.0650379480944331</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04236825748483357</v>
+        <v>0.06016307334290897</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03807524420185895</v>
+        <v>0.05398993049699734</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03454229328210902</v>
+        <v>0.05092966470659509</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03213501245672883</v>
+        <v>0.04932695777194288</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03184823135405263</v>
+        <v>0.04732895414439074</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03092115310218088</v>
+        <v>0.04542350901325164</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03059610685946856</v>
+        <v>0.0447847250094331</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02988784642409726</v>
+        <v>0.04374833676317175</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02942597165874971</v>
+        <v>0.04281507856481386</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02915170243356777</v>
+        <v>0.0423257174870185</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02885458996040594</v>
+        <v>0.04184543948415295</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02878267415235739</v>
+        <v>0.04152481837247183</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02854347143364555</v>
+        <v>0.04122362290224218</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02839973429147171</v>
+        <v>0.04107781108793178</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02839973429147171</v>
+        <v>0.04088138072157833</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02831114312969657</v>
+        <v>0.04067520002878714</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02822715956469804</v>
+        <v>0.04062785471915577</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7948737144470215</v>
+        <v>1.498037338256836</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1489.904564869592</v>
+        <v>2076.194138023489</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06810240487318925</v>
+        <v>0.0946640925639493</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05517304379635206</v>
+        <v>0.07547429697127506</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0449984857945104</v>
+        <v>0.06523312113804133</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04145986882199669</v>
+        <v>0.05897679766815391</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03902636456940533</v>
+        <v>0.05203247794618173</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03723394995561809</v>
+        <v>0.05203247794618173</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03570663423462161</v>
+        <v>0.04987208825711924</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03350323711037784</v>
+        <v>0.04684346996895047</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0327464322978905</v>
+        <v>0.0451714968043502</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03209542636751661</v>
+        <v>0.0444109924468123</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0310561342390011</v>
+        <v>0.04370612949872715</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02967495056841576</v>
+        <v>0.04302194869373173</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02967495056841576</v>
+        <v>0.04268021211882009</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02945533037196667</v>
+        <v>0.04203050931441327</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02940175733040556</v>
+        <v>0.04151662474600519</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02912829677037918</v>
+        <v>0.04119797139275679</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02912829677037918</v>
+        <v>0.04076095041551464</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02912829677037918</v>
+        <v>0.04069124437802291</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02906434096151064</v>
+        <v>0.04057654674918851</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02904297397406611</v>
+        <v>0.04047162062423955</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7354607582092285</v>
+        <v>1.616026163101196</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1541.152179596231</v>
+        <v>2056.398111952029</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06775691073841195</v>
+        <v>0.09332948515268631</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05434322035179644</v>
+        <v>0.07723116330518767</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04814376526188227</v>
+        <v>0.06628219646908315</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04525903684008887</v>
+        <v>0.05962900013117365</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04038739542168356</v>
+        <v>0.05506320160501134</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0370802751993872</v>
+        <v>0.05229243294305164</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03607167413999854</v>
+        <v>0.04974306139253499</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03448418730544573</v>
+        <v>0.04757399622798197</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03343284984446292</v>
+        <v>0.04524831247848512</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03247872715987322</v>
+        <v>0.04443536272501646</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03192364383010562</v>
+        <v>0.04324437233606658</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03158190835925204</v>
+        <v>0.04190995944332584</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03138525698268505</v>
+        <v>0.04161653922613266</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03093965111721659</v>
+        <v>0.04092192235605797</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03060720307819696</v>
+        <v>0.0408366625400271</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03045851068969805</v>
+        <v>0.04061484300975535</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0302786638459095</v>
+        <v>0.04046030001575787</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03024104488340618</v>
+        <v>0.04025115565116848</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03011668876375502</v>
+        <v>0.04015323457082132</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03004195281863997</v>
+        <v>0.04008573317645279</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7031199932098389</v>
+        <v>1.580986261367798</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1497.186824226579</v>
+        <v>2089.528007068355</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0672456839988628</v>
+        <v>0.09407049365186053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05657568496370059</v>
+        <v>0.07366930900259971</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0477458644051469</v>
+        <v>0.06602704761586128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04228088860076793</v>
+        <v>0.05998068221838463</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03933476695716807</v>
+        <v>0.05640466573466887</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03692756930129316</v>
+        <v>0.05332802170903994</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03454001101886991</v>
+        <v>0.0506796524571128</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03347246870684517</v>
+        <v>0.04824055022335234</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03276766262713533</v>
+        <v>0.04637531498951879</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0316495150884161</v>
+        <v>0.04470779480651561</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03083621275591808</v>
+        <v>0.04402883712844365</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03034223198578209</v>
+        <v>0.04309453677487127</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0299177808342243</v>
+        <v>0.04266859229641996</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02971942387621307</v>
+        <v>0.0418419654739287</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02971836810056327</v>
+        <v>0.0417672493930584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0296236739641736</v>
+        <v>0.04141984305360232</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02952765577235657</v>
+        <v>0.04119146530959913</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02925784386087629</v>
+        <v>0.04103490510534425</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02925784386087629</v>
+        <v>0.04084265064425651</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02918492834749666</v>
+        <v>0.04073154009879833</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7187392711639404</v>
+        <v>1.627998352050781</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1545.066929621027</v>
+        <v>2054.130812007405</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06762117489747681</v>
+        <v>0.09397968727101226</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05345745275471724</v>
+        <v>0.07725029474226243</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0472760459665636</v>
+        <v>0.06765354038788966</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04302408632300653</v>
+        <v>0.05969421596489668</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03997455093440801</v>
+        <v>0.05667148833115187</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03673463312149364</v>
+        <v>0.05218857474319434</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0344684096322875</v>
+        <v>0.04991447901796406</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03331944482693355</v>
+        <v>0.04797931778591412</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0329920573656258</v>
+        <v>0.04579911145361162</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03236778302992665</v>
+        <v>0.04419843789485547</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03232901676534485</v>
+        <v>0.04341355318344636</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03163937897794613</v>
+        <v>0.0423574932766021</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0312920460443203</v>
+        <v>0.04227656135565593</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0310526447490998</v>
+        <v>0.04150544231425234</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03072483742442202</v>
+        <v>0.04098740404844013</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03056705857797291</v>
+        <v>0.04072483718646696</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03041184994264001</v>
+        <v>0.04043371844877375</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03032951668868616</v>
+        <v>0.04025961650266923</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03017097100123558</v>
+        <v>0.04015532425913857</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03011826373530267</v>
+        <v>0.04004153629644062</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7187497615814209</v>
+        <v>1.660645961761475</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1533.58244787914</v>
+        <v>2080.804101792068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06731517371662961</v>
+        <v>0.09462290128124194</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05498301897314078</v>
+        <v>0.07677525461014907</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04782023718856787</v>
+        <v>0.06641138510167439</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04514663880210839</v>
+        <v>0.05942722586457996</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04131143266402484</v>
+        <v>0.05515482836843017</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03836842141566298</v>
+        <v>0.05067868193078766</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03654387252830766</v>
+        <v>0.04867569241981785</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0354126450905902</v>
+        <v>0.04641493210461217</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03411159162300496</v>
+        <v>0.04533032982887575</v>
       </c>
       <c r="O7" t="n">
-        <v>0.033659050097132</v>
+        <v>0.04473128211421507</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03297813068918972</v>
+        <v>0.0434970099806388</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03239670621568314</v>
+        <v>0.04271831683150806</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03117620842964664</v>
+        <v>0.04213455066135843</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03072741331048395</v>
+        <v>0.04168572635456904</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03045261616871347</v>
+        <v>0.04127686798007848</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03043917275957136</v>
+        <v>0.04104290570028814</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03017431874748723</v>
+        <v>0.04097753397229002</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03008787394197295</v>
+        <v>0.04080035965961794</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02990675865036339</v>
+        <v>0.04064207490583113</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0298943946954998</v>
+        <v>0.0405614834657323</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7031259536743164</v>
+        <v>1.712998151779175</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1523.053553910388</v>
+        <v>2045.925541434346</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06501018666108467</v>
+        <v>0.09437991918576265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0545228238009107</v>
+        <v>0.07522363841588058</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0479539374492574</v>
+        <v>0.06903016987404968</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04580723083442008</v>
+        <v>0.05822951539529845</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04268867611053955</v>
+        <v>0.05452740994649019</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03946883614934294</v>
+        <v>0.05148241424973311</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03672258647081109</v>
+        <v>0.04922276264525289</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03476627921585379</v>
+        <v>0.0472945582444373</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03419691497416947</v>
+        <v>0.04543844009585785</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0326067168873132</v>
+        <v>0.04406579705106247</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03191753174263255</v>
+        <v>0.04322218954773902</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03133585307578327</v>
+        <v>0.04238540932716396</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03101515850373525</v>
+        <v>0.04165709345687459</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03035872719602457</v>
+        <v>0.04109895929616249</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03035872719602457</v>
+        <v>0.04048934042370875</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03021754591801571</v>
+        <v>0.04039106012279217</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03005012499922026</v>
+        <v>0.04024102749323697</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02990032753930467</v>
+        <v>0.04008816599833929</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02976148800669126</v>
+        <v>0.03991005027198264</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02968915309766837</v>
+        <v>0.03988158950164417</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7031211853027344</v>
+        <v>1.629999399185181</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1514.261986118221</v>
+        <v>2095.226719795983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06676943473561732</v>
+        <v>0.09030333871940428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05264553125347945</v>
+        <v>0.07745575044779146</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04622361771963186</v>
+        <v>0.06793274200817161</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04406999175272695</v>
+        <v>0.06120037129551467</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03843668393532098</v>
+        <v>0.0561405727252252</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03672302073926133</v>
+        <v>0.05227842319425915</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03495547076223143</v>
+        <v>0.05039184592087559</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03408338568551982</v>
+        <v>0.04698084159316915</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03329402667793729</v>
+        <v>0.04606839452637098</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03262107783706859</v>
+        <v>0.04551310504781189</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03143566260652664</v>
+        <v>0.04460866761615089</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03143566260652664</v>
+        <v>0.04358081994846193</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03122779820159909</v>
+        <v>0.04313716816574954</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03066628741045385</v>
+        <v>0.0421695602064293</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03057366669322176</v>
+        <v>0.04184168845057011</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03010439244833343</v>
+        <v>0.04156479875595883</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02980353292195573</v>
+        <v>0.04127823897516132</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02980353292195573</v>
+        <v>0.04095173095237709</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02961753363838246</v>
+        <v>0.04094487252950358</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02951777750717779</v>
+        <v>0.04084262611688074</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7187502384185791</v>
+        <v>1.483002662658691</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1505.778464952426</v>
+        <v>2097.831214728378</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0678416358667131</v>
+        <v>0.09302231987941975</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05645771709134453</v>
+        <v>0.07409725264055522</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04738540092135047</v>
+        <v>0.06455503120587008</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04043907830815214</v>
+        <v>0.05837973567001255</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03854609583932683</v>
+        <v>0.055195758021547</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03685117388999191</v>
+        <v>0.0529182560631328</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0348694310253166</v>
+        <v>0.04921150677898703</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03363071655283082</v>
+        <v>0.04800088064283262</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03313617387564987</v>
+        <v>0.04742214413890924</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03233395056417573</v>
+        <v>0.04640997321981414</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03156898208031031</v>
+        <v>0.04510979918443056</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03118527488470511</v>
+        <v>0.04439140004018894</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03026709342830818</v>
+        <v>0.04300890919246345</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03020777005270174</v>
+        <v>0.04247786915420945</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02982793391154151</v>
+        <v>0.04196897224612891</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02982793391154151</v>
+        <v>0.04140335800212637</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02960267994422603</v>
+        <v>0.04128990609187624</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02956679978102322</v>
+        <v>0.04113509050208477</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02946298024877584</v>
+        <v>0.04097565638303467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02935240672421881</v>
+        <v>0.04089339599860384</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7031300067901611</v>
+        <v>1.701997518539429</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1533.507702813768</v>
+        <v>2078.782217955319</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06787085321713363</v>
+        <v>0.0951994750013921</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05607279188414514</v>
+        <v>0.07713783526644546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04708460183074994</v>
+        <v>0.06699080052867359</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04456994579466091</v>
+        <v>0.06096992798555035</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04172841837812251</v>
+        <v>0.05530454330697981</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03826035237248345</v>
+        <v>0.05211003979437823</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03671104606460574</v>
+        <v>0.0483631760078902</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03576829159578882</v>
+        <v>0.04750738401897126</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03439273434707859</v>
+        <v>0.04551716737972711</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03278351632076679</v>
+        <v>0.04378971934256529</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03214940820282364</v>
+        <v>0.04320516558474126</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03196132506912719</v>
+        <v>0.04266311580957934</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03161442803019304</v>
+        <v>0.04208199836310199</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03105169659336472</v>
+        <v>0.04161073614020045</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03068357354758817</v>
+        <v>0.04145980797690887</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03025400775556457</v>
+        <v>0.04121624059241891</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03023523669255527</v>
+        <v>0.04095652452183285</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03010335496342829</v>
+        <v>0.04065991185997406</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02996353699889102</v>
+        <v>0.04054490363848002</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02989293767668162</v>
+        <v>0.0405220705254448</v>
       </c>
     </row>
   </sheetData>
